--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Invent Randomizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C8ABDC-1A83-4A6E-A4B0-5C042A609551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B39870-3545-4BD2-8D34-2A06ED7B2298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
